--- a/backend/files/xlsx/教师zhouqing的资源列表.xlsx
+++ b/backend/files/xlsx/教师zhouqing的资源列表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>序号</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>web系统开发学习.pdf</t>
+  </si>
+  <si>
+    <t>http://120.78.150.89/ComputeThinking/advanced/backend/files/uploads/运用DINA模型对5年级学生数学应用题问题解决进行认知诊断_鲍孟颖20201203130241.caj</t>
+  </si>
+  <si>
+    <t>运用DINA模型对5年级学生数学应用题问题解决进行认知诊断_鲍孟颖.caj</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +473,20 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
     </row>
